--- a/server/students.xlsx
+++ b/server/students.xlsx
@@ -397,134 +397,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="2">
       <c r="A2" t="str">
-        <v>Rachel</v>
+        <v>Gurpratap Singh</v>
       </c>
       <c r="B2" t="str">
-        <v>Rachel@gmail.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Rachel</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Rachel@gmail.com</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B4" t="str">
-        <v>gurpratapdfdfsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Rachel</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Rachel@gmail.com</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B6" t="str">
-        <v>gurpratapdfdfsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B7" t="str">
         <v>gurpratapsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Rachel</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Rachel@gmail.com</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B9" t="str">
-        <v>gurpratapdfdfsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B10" t="str">
-        <v>gurpratapsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Priyanshu Shukla</v>
-      </c>
-      <c r="B11" t="str">
-        <v>priyanshushukla1217@gmail.com</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Rachel</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Rachel@gmail.com</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B13" t="str">
-        <v>gurpratapdfdfsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Gurpratap Singh</v>
-      </c>
-      <c r="B14" t="str">
-        <v>gurpratapsingh595@gmail.com</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Priyanshu Shukla</v>
-      </c>
-      <c r="B15" t="str">
-        <v>priyanshushukla1217@gmail.com</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Riya Paliwal</v>
-      </c>
-      <c r="B16" t="str">
-        <v>riya@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/students.xlsx
+++ b/server/students.xlsx
@@ -404,10 +404,10 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="str">
-        <v>Gurpratap Singh</v>
+        <v>Riya Paliwal</v>
       </c>
       <c r="B2" t="str">
-        <v>gurpratapsingh595@gmail.com</v>
+        <v>riyapaliwal1404@gmail.com</v>
       </c>
     </row>
   </sheetData>
